--- a/medicine/Enfance/Paul_Beorn/Paul_Beorn.xlsx
+++ b/medicine/Enfance/Paul_Beorn/Paul_Beorn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Beorn, de son vrai nom Paul Couaillier, né le 24 novembre 1977 à La Rochelle, est un écrivain français, principalement de récits de fantasy, mais aussi de fantastique et de science-fiction. Il écrit également des romans destinés à un public d'enfance et de jeunesse.
 </t>
@@ -511,18 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Beorn se passionne très jeune pour la littérature et son désir d'écrire s'ancre dans son quotidien. Marqué par le personnage de Beorn du livre pour enfants Bilbo le Hobbit, il utilise ce nom comme pseudonyme pour ses romans.
 Ses premières nouvelles publiées appartiennent à la littérature courante avant qu'il ne revienne durablement aux littératures de l'imaginaire.
-En 2008, il commence à s'impliquer au sein du collectif d'auteurs amateurs CoCyclics et publie son premier roman en 2010 aux éditions Mnémos. Comme il l'avoue lui-même[1], cette publication est une véritable surprise. Bien qu'ayant découvert et aimé la fantasy dans sa jeunesse, il s'en était éloigné et connaissait mal le genre. De ce fait, il ne croyait pas vraiment que son projet serait accepté par un éditeur.
-Il est codirecteur du Grimoire galactique des Grenouilles[2], guide annuaire des maisons d'édition de l'imaginaire publié pour le compte de CoCyclics.
+En 2008, il commence à s'impliquer au sein du collectif d'auteurs amateurs CoCyclics et publie son premier roman en 2010 aux éditions Mnémos. Comme il l'avoue lui-même, cette publication est une véritable surprise. Bien qu'ayant découvert et aimé la fantasy dans sa jeunesse, il s'en était éloigné et connaissait mal le genre. De ce fait, il ne croyait pas vraiment que son projet serait accepté par un éditeur.
+Il est codirecteur du Grimoire galactique des Grenouilles, guide annuaire des maisons d'édition de l'imaginaire publié pour le compte de CoCyclics.
 Ses romans font l'objet de plusieurs sélections et nominations pour des prix littéraires. La Perle et l'enfant est sélectionné pour le prix révélations des Futuriales et nommé pour le prix Imaginales en 2011. Les Derniers Parfaits est nommé pour le prix Imaginales, pour le prix Bob-Morane et pour le grand prix de l'Imaginaire en 2013.
-En 2014, il co-écrit avec Silène Edgar le roman 14-14[3] aux éditions Castelmore[4] mettant en parallèle les histoires de deux garçons à un siècle d'écart[5]. Le livre reçoit une dizaine de prix dont le Prix Gulli 2014 du roman jeunesse 8-12 ans[6], le Prix du roman contemporain 2015, le Prix des Embouquineurs 2015 (catégorie sixième/cinquième), le Prix des P'tits Bouquineurs 2015 et le Prix des Incorruptibles 2016 dans la catégorie cinquième/quatrième, etc. Le livre est aussi publié dans une version adaptée aux lecteurs dyslexiques. Il est traduit et publié dans douze pays étrangers (Brésil[7], Pologne[8], Turquie[9], Corée du Sud, etc.).
+En 2014, il co-écrit avec Silène Edgar le roman 14-14 aux éditions Castelmore mettant en parallèle les histoires de deux garçons à un siècle d'écart. Le livre reçoit une dizaine de prix dont le Prix Gulli 2014 du roman jeunesse 8-12 ans, le Prix du roman contemporain 2015, le Prix des Embouquineurs 2015 (catégorie sixième/cinquième), le Prix des P'tits Bouquineurs 2015 et le Prix des Incorruptibles 2016 dans la catégorie cinquième/quatrième, etc. Le livre est aussi publié dans une version adaptée aux lecteurs dyslexiques. Il est traduit et publié dans douze pays étrangers (Brésil, Pologne, Turquie, Corée du Sud, etc.).
 Ils continuent leur collaboration avec le roman Lune Rousse, Les Loups-garous de Thiercelieux en novembre 2018, autour de l’univers du jeu de société éponyme de Philippe des Pallières et Hervé Marly. Puis, en 2021, ils élaborent ensemble le roman fantastique historique La Dame des murs aux éditions Castelmore.
 Le Septième Guerrier-Mage, paru en 2015 aux éditions Bragelonne, est couronné du prix Imaginales des lycéens 2016. Le premier volume de Calame, Les Deux visages, également publié aux éditions Bragelonne en 2018, obtient quant à lui le prix Imaginales des bibliothécaires 2019.
-Vie privée
-Paul Beorn vit à Bordeaux avec sa femme et ses trois enfants.
 </t>
         </is>
       </c>
@@ -548,47 +560,425 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Beorn vit à Bordeaux avec sa femme et ses trois enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Diptyque La Pucelle de Diable-Vert
-La Perle et l'Enfant, Mnémos, 2010
-Le Hussard amoureux, Mnémos, 2010
-Diptyque Calame
-Les Deux Visages, Bragelonne, 2018Prix Imaginales des bibliothécaires 2019
-Les Deux Royaumes, Bragelonne, 2021
-Romans indépendants
-Les Derniers Parfaits, Mnémos, 2012
-Le Septième Guerrier-mage, Bragelonne, 2015Prix Imaginales des lycéens 2016
-Romans jeunesse
-Série Le Club des chasseurs de fantôme
-Le Navire de l'oubli, Rageot, 2019
-La Statuette mystérieuse, Rageot, 2019
-Série Mélo-Méli (co-écrite avec Lilie Bagage)
-Mélo-Méli chez Alexander Fleming, Scrineo, 2021
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Diptyque La Pucelle de Diable-Vert</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Perle et l'Enfant, Mnémos, 2010
+Le Hussard amoureux, Mnémos, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Diptyque Calame</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Deux Visages, Bragelonne, 2018Prix Imaginales des bibliothécaires 2019
+Les Deux Royaumes, Bragelonne, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Derniers Parfaits, Mnémos, 2012
+Le Septième Guerrier-mage, Bragelonne, 2015Prix Imaginales des lycéens 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Le Club des chasseurs de fantôme</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Navire de l'oubli, Rageot, 2019
+La Statuette mystérieuse, Rageot, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Mélo-Méli (co-écrite avec Lilie Bagage)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mélo-Méli chez Alexander Fleming, Scrineo, 2021
 Mélo-Méli chez Marie Curie, Scrinéo, 2021
 Mélo-Méli chez Jane Goodall, Scrinéo, 2022
-Mélo-Méli chez Archimède, Scrinéo, 2022
-Série Keo et l'épée magique (illustrée par Alexandre Cochez)
-L'Armée des orcs, Casterman, 2022
+Mélo-Méli chez Archimède, Scrinéo, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Keo et l'épée magique (illustrée par Alexandre Cochez)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'Armée des orcs, Casterman, 2022
 Le Dévoreur de magie, Casterman, 2022
 Le Tournoi des chevaliers, Casterman, 2023
-Le Seigneur des ténèbres, Casterman, 2024
-Roman dont vous êtes le héros
-Le Dernier des dragons, Rageot, 2021
-La Dernière des elfes, Rageot, 2024
-Romans indépendants
-14-14, Castelmore, 2014Coécrit avec Silène Edgar. Prix Gulli-du-roman 2014, Prix des incorruptibles 2016(a aussi été écrit de façon adaptée aux lecteurs dyslexiques.
+Le Seigneur des ténèbres, Casterman, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Roman dont vous êtes le héros</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Dernier des dragons, Rageot, 2021
+La Dernière des elfes, Rageot, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>14-14, Castelmore, 2014Coécrit avec Silène Edgar. Prix Gulli-du-roman 2014, Prix des incorruptibles 2016(a aussi été écrit de façon adaptée aux lecteurs dyslexiques.
 Le Club des chasseurs de fantômes, Imaginemos, 2014
 Un ogre en cavale, Castelmore, 2016
-Lune rousse, Castelmore, 2018Coécrit avec Silène Edgar. D'après l'univers du jeu de société Les Loups-garous de Thiercelieux
-Romans jeunes adultes
-Le Jour où..., Castelmore, 2014
-Nouvelles
-2003 : Le Minotaure, publiée dans la revue L'Encrier renversé no 51
+Lune rousse, Castelmore, 2018Coécrit avec Silène Edgar. D'après l'univers du jeu de société Les Loups-garous de Thiercelieux</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans jeunes adultes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le Jour où..., Castelmore, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2003 : Le Minotaure, publiée dans la revue L'Encrier renversé no 51
 2004 : La Carte Mère, publiée dans le recueil collectif Et si c'était vrai, éditions du Roure
 2004 : Écœurant, publié dans le recueil Prix Haut-Rhinois de la Nouvelle Littéraire 2004
 2004 : Le Premier Monde, publiée dans la revue Sol'Air no 30
@@ -604,41 +994,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_Beorn</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Beorn</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2014 : Prix Gulli-du-roman[10] 8-12 ans pour 14-14
-2015 : Prix du roman contemporain pour 14-14[11]
-2015 : Prix des Embouquineurs (catégorie sixième/cinquième) pour 14-14[12]
-2015 : Prix des P'tits Bouquineurs pour 14-14[13]
-2016 : Prix des Incorruptibles (catégorie cinquième/quatrième) pour 14-14[14]
-2016 : Prix Tatoulu pour 14-14[15]
-2016 : Prix Imaginales des lycées pour Le septième guerrier-mage[16]
-2018 : Prix Ado Hautes Pyrénées pour 14-14[17]
-2019 : Prix Imaginales des bibliothécaires pour Calame T1 Les deux visages[18]</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2014 : Prix Gulli-du-roman 8-12 ans pour 14-14
+2015 : Prix du roman contemporain pour 14-14
+2015 : Prix des Embouquineurs (catégorie sixième/cinquième) pour 14-14
+2015 : Prix des P'tits Bouquineurs pour 14-14
+2016 : Prix des Incorruptibles (catégorie cinquième/quatrième) pour 14-14
+2016 : Prix Tatoulu pour 14-14
+2016 : Prix Imaginales des lycées pour Le septième guerrier-mage
+2018 : Prix Ado Hautes Pyrénées pour 14-14
+2019 : Prix Imaginales des bibliothécaires pour Calame T1 Les deux visages</t>
         </is>
       </c>
     </row>
